--- a/data/BARMM/BASILAN.xlsx
+++ b/data/BARMM/BASILAN.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="AKBAR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AL-BARKA" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6471,4 +6472,6194 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D405"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>PRESIDENT PHILIPPINES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ABELLA, ERNIE (IND)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.24 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DE GUZMAN, LEODY (PLM)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DOMAGOSO, ISKO MORENO (AKSYON)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.81 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GONZALES, NORBERTO (PDSP)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.37 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LACSON, PING (PDR)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.12 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MANGONDATO, FAISAL (KTPNAN)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MARCOS, BONGBONG (PFP)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5,785</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>71.71 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MONTEMAYOR, JOSE JR. (DPP)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PACQUIAO, MANNY PACMAN(PROMDI)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ROBREDO, LENI (IND)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,570</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19.46 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8726</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8067</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>VICE PRESIDENT PHILIPPINES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ATIENZA, LITO (PROMDI)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.08 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BELLO, WALDEN (PLM)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.03 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DAVID, RIZALITO (DPP)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DUTERTE, SARA (LAKAS)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>7,480</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>95.79 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LOPEZ, MANNY SD (WPP)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.21 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ONG, DOC WILLIE (AKSYON)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PANGILINAN, KIKO (LP)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2.89 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SERAPIO, CARLOS (KTPNAN)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.12 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SOTTO, VICENTE TITO (NPC)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.60 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8726</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7808</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SENATOR PHILIPPINES</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AFUANG, ABNER (IND)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.47 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ALBANI, IBRAHIM (WPP)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1,018</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4.12 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ARRANZA, MANG JESS (IND)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.23 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BAGUILAT, TEDDY (LP)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.51 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BAILEN, AGNES (IND)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.30 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BALITA, CARL (AKSYON)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1.98 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BARBO, LUTZ (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.35 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BAUTISTA, HERBERT BISTEK (NPC)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1.49 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BELGICA, GRECO (PDDS)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.28 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BELLO, SILVESTRE JR. (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.23 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BINAY, JOJO (UNA)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2.18 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CABONEGRO, ROY (PLM)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.23 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CASTRICIONES, BRO JOHN(PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.18 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CAYETANO, ALAN PETER (IND)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2.47 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CHAVEZ, MELCHOR (WPP)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.15 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>COLMENARES, NERI (MKBYN)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.33 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>D'ANGELO, DAVID (PLM)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.36 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DE LIMA, LEILA (LP)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.87 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>DEL ROSARIO, MONSOUR (PDR)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.94 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DIAZ, DING (PPP)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.34 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>DIOKNO, CHEL (KANP)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.73 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>EJERCITO, JV ESTRADA (NPC)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ELEAZAR, GEN. GUILLERMO (PDR)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.62 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>EREÑO, BRO. ERNIE (PM)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.25 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ESCUDERO, CHIZ (NPC)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1.26 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ESPIRITU, LUKE (PLM)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.30 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ESTRADA, JINGGOY (PMP)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2.43 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FALCONE, BAL FALCON (DPP)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.21 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GADON, LARRY (KBL)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>GATCHALIAN, WIN (NPC)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1.71 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>GORDON, WOW DICK (BVNP)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.72 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GUTOC, SAMIRA (AKSYON)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2.47 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>HONASAN, GRINGO (IND)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>HONTIVEROS, RISA (AKBAYAN)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1.53 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>JAVELLANA, RJ (IND)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0.27 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>KIRAM, NUR-MAHAL (IND)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2.43 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>LABOG, ELMER (MKBYN)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.17 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LACSON, KUYA ALEX (KP)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.66 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>LANGIT, REY (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.30 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>LEGARDA, LOREN (NPC)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2.62 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>LIM, ARIEL (IND)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.34 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MALLILLIN, EMILY (PPM)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0.33 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MARCOLETA, RODANTE (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0.36 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MARCOS, FRANCIS LEO (IND)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.89 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MATULA, SONNY (IND)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0.24 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MINDALANO-ADAM,MARIETA(KTPNAN)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1.31 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>OLARTE, ATTY/DR. LEO (BIGKIS)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PADILLA, DRA. MINGUITA (PDR)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1.85 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PADILLA, ROBIN (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7,499</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>30.42 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PANELO, SAL PANALO (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0.70 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PIMENTEL, ASTRA (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.58 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PIÑOL, MANNY (NPC)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0.51 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RICABLANCA, WILLIE JR. (PM)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0.25 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ROQUE, HARRY SPOX (PRP)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1.27 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SAHIDULLA, LADY ANNE (PDDS)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1.78 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SISON, JOPET (AKSYON)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>TEODORO, GIBO (PRP)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1.29 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>TRILLANES, ANTONIO IV (LP)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0.62 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TULFO, IDOL RAFFY (IND)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1,380</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>5.59 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>VALEROS, REY (IND)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0.24 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>VILLANUEVA,JOEL TESDAMAN (IND)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2.61 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>VILLAR, MARK (NP)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3.44 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ZUBIAGA, CARMEN (IND)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0.32 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ZUBIRI, MIGZ (IND)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3.55 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>79497</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>104712</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>24651</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>PARTY LIST PHILIPPINES</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>01 KAMALAYAN</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0.43 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>02 KM NGAYON NA</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0.20 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>03 PSIS</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>04 AGAP</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>05 KABAYAN</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0.41 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>06 HOME OWNER</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>07 KAPUSO-PM</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>08 PDP CARES</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0.25 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>09 MARVELOUS TAYO</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>10 AKO OFW</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0.32 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>11 UNITED SENIOR CITIZEN</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>12 WOW PILIPINAS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>13 ALTERNATIBA</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>14 1-RIDER PARTYLIST</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>15 1-CARE</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>16 ABP</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>17 AKO MUSIKERO</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0.34 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>18 AKO BICOL</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>19 PRAI</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>20 4PS</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1.55 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>21 MAAGAP</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>22 ABANTE PILIPINAS</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>23 AKTIBONG KAAGAPAY</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1.07 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>24 ALSA BISAYA</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>25 PROBINSYANO AKO</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1.32 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>26 YACAP</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>27 MAGDALO</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0.36 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>28 ACT-CIS</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>29 HUGPONG FEDERAL</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1.30 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>30 TGP</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0.18 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>31 ONE COOP</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>32 BARKADAHAN</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>33 DUMPER PTDA</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>34 MALABUNG</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>35 BH (BAGONG HENERASYON)</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>36 AKMA-PTM</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0.32 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>37 IPATUPAD</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>38 PINUNO</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0.25 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>39 LPGMA</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0.61 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>40 CLICK PARTY</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>41 TODA</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>42 BHW</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>43 MALASAKIT@BAYANIHAN</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0.29 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>44 ABS</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>45 PASAHERO PARTYLIST</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>46 ANGAT</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>5.69 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>47 SOLID-CHANGE</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0.20 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>48 BICOL SARO</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>49 OFW</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0.91 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>50 ANG PROBINSIYANO</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1.05 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>51 ANAKALUSUGAN</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>52 PBA</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>53 PEACE</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>54 P3PWD</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>55 S.M.I.L.E</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0.13 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>56 AAMBIS-OWA</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>57 BUTIL</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>58 LUNAS</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>59 ANG KOMADRONA</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>60 KABAKA</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>61 SAGIP</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>62 ANG KABUHAYAN</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0.22 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>63 AKO I.P.</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>64 PHILRECA</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>65 BABAE AKO</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>66 KB</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>67 GABRIELA</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>68 KALINGA</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>69 STL</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>70 RECOBODA</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>71 ANGAT PINOY</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1,564</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>35.78 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>72 ANAC-IP</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1.64 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>73 DIWA</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>74 ASENSO PINOY</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>75 PPP</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>76 PAMILYA MUNA</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>77 AYUDA SANDUGO</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>78 BUKLOD FILIPINO</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>79 BTS</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2.26 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>80 MOCHA</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>81 ACT TEACHERS</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1.32 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>82 ALONA</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>83 KABALIKAT</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>84 ALIF</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>85 1-UTAP BICOL</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>86 TINGOG</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>87 H.E.L.P. PILIPINAS</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>88 TUCP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>89 PTA</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>90 AGIMAT</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>91 KONTRA BROWNOUT</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>0.25 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>92 TULUNGAN TAYO</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>0.34 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>93 DUTERTE YOUTH</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>3.88 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>94 ABEKA</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>95 KABATAAN</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>97 ACTS-OFW</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>98 RAM</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>99 USWAG ILONGGO</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>100 AKO BISAYA</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>101 KAPAMILYA</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>0.13 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>102 PUSONG PINOY</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>103 CWS</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>104 SILBI</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>105 CIBAC</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>106 SUBANEN</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>107 AKKK</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>3.50 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>108 BG PARTY-LIST</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>109 PAMILYANG MAGSASAKA</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>110 COOP NATCCO</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>111 FRONTLINERS ANG BIDA</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>112 KASAMA</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>113 AKO BISDAK</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>114 GP PARTY</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>115 BAHAY</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>116 MAGSASAKA</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>117 MARINO</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>118 UNITED FRONTLINERS</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>119 L.O.G.R.O. KUSINERO</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>120 BPO</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>121 ABANG LINGKOD</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>122 KUSUG TAUSUG</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2.35 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>123 PLM</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>124 OK PARTYLIST</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>5.62 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>125 A TEACHER</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>126 PASADA-CC</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>127 OFW FAMILY</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>0.18 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>128 ANGKLA</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>129 COCOMAN</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>130 ACT AS ONE</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>131 AKO ILOCANO AKO</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>132 TRABAHO</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>133 PATROL</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>134 AKO PADAYON</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>135 ABONO</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>136 MANILA TEACHERS</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>137 KOOP-KAMPI</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>138 MAYPAGASA</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>139 PVAID</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>140 TUTOK TO WIN</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>0.27 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>141 BAYAN MUNA</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>142 API</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>143 ARTE</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>144 ASAP</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>145 BUNYOG</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>146 AKBAYAN</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>1.71 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>147 DAMAYAN</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>148 WIFI</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>0.06 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>149 CANCER PARTY LIST</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>0.20 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>150 1-ANG EDUKASYON</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>151 UFCC</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>152 AGRI</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>153 MAHARLIKA</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>154 ANAKPAWIS</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>155 1TAHANAN</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>156 TURISMO</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>157 APEC</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>158 SENIOR CITIZENS PARTYLIST</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>159 AASENSO</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>160 AMIN</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>15.76 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>161 1-PACMAN</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>0.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>162 ABB-NFCPI</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>163 AN WARAY</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>164 AP PARTYLIST</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>0.32 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>165 AKAP PINOY</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>166 BUHAY</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>167 ARISE</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>168 IWI</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>169 ANG TINIG NG SENIORS</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>0.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>170 LBP</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>171 IPEACE EPANAW</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>0.04 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>172 APAT-DAPAT</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>173 UMA ILONGGO</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>174 AYUDA</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>0.09 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>175 SAMBAYANAN</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>176 AKO BREEDER</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>177 FPJ</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>0.25 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>178 LIBRO</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>0.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B289" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C289" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D289" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>4086</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>8726</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>4371</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>MEMBER, HOUSE OF REPRESENTATIVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B295" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C295" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>HATAMAN, MUJIV (BUP)</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>4,628</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>60.37 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>JAUJOHN, ABDULHAN (IND)</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>0.33 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>JUNAID, YASMEEN (UBJP)</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2,966</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>38.69 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>SAMIUN, MOHAMMAD ALIH (PDDS)</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>0.60 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B301" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C301" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D301" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>8726</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>7666</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>PROVINCIAL GOVERNOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B307" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C307" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>AKBAR, ALFIYA (LAKAS)</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>3,871</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>48.42 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>AMIRIL, WALID (PDDS)</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>0.45 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>GARINGAN, ISMAEL (IND)</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>HATAMAN-SALLIMAN, JIM (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>4,077</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>51.00 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B313" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C313" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D313" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>8726</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>7993</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>PROVINCIAL VICE-GOVERNOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B319" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C319" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ABDIL, MAJID (IND)</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>0.51 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>ALANO, YUSOP (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>4,664</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>64.83 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>JAMIRI, RAHMA (IND)</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>0.58 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>SALI, PAI (UBJP)</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2,451</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>34.07 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B325" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C325" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D325" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>8726</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>7194</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>MEMBER, SANGGUNIANG PANLALAWIGAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B331" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C331" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ABDULLA, MADZ (IND)</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>3.38 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>AKALUN, IBNOHAIR (IND)</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>1.81 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>ARAMIL, MONSOY (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>3,368</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>13.76 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>ASARUL, NASSER (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>3,397</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>13.87 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>HATAMAN, MARWAN (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2,450</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>10.01 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>IDRIS, HJ. KASIM (UBJP)</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2,607</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>10.65 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>JALIL, SHING (IND)</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>0.41 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>KALLAHAL, DURIE (LP)</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2,594</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>10.59 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>MAJIRUL, HAMDIE (UBJP)</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1,641</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>6.70 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>REYES, BERT (IND)</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>0.23 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>SALI, YEH (UBJP)</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>4,344</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>17.74 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>SALLIMAN, JAY (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2,641</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>10.79 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B345" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C345" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D345" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>10129</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>34904</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>24475</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>MAYOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B351" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C351" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>HOTONG, SULAIMAN (IND)</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>0.26 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>ISMAEL, IBRAHIM (IND)</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>3.05 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>JAIRATUL, JHON (IND)</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>0.08 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>JAKILAN, MUJIB (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>3,452</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>40.91 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>LADJID, JAID (PDDS)</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>0.81 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>LAJID, JAYDEEFAR (UBJP)</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>4,630</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>54.87 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B359" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C359" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D359" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>8726</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>8438</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>VICE-MAYOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B365" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C365" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>LAJID, DARUSSALAM (LAKAS)</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>5,275</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>63.53 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>TOKONG, MURILIN (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>3,028</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>36.46 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B369" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C369" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D369" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>8726</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>8303</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>MEMBER, SANGGUNIANG BAYAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B375" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C375" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ABDASAL, EMRAN (IND)</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>4,612</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>7.45 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>ABDIL, DELMA (IND)</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>3,257</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>5.26 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>ABDURAJAK, SAMID (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>1.55 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>AHLAM, INDAMA (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2,294</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>3.70 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>AL-AMIN, SAIDIE (UBJP)</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2,490</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>4.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>ANDIKIE, HAMID (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1,008</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>1.62 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ASNAWI, MAHRUF (LAKAS)</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>4,205</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>6.79 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>AWAL, APPAN (UBJP)</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>3,804</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>6.14 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>FERNANDEZ, IBS (UBJP)</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2,177</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>3.51 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>GUMUNTUL, ABDUL ADJIDZ (UBJP)</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1,689</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>2.73 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>HASAN, MOAMMAR (IND)</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ISARUL, JAIN (IND)</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1,348</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>2.17 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>ISHAK, SAID (IND)</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>3,039</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>4.91 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>JAIRATUL, LHIDZ (IND)</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>3,842</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>6.21 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>KABUKISAN, ARSAD (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2,113</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>3.41 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>MASUHUL, ABDUSSAMAD (UBJP)</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2,487</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>4.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>MUJAJILUN, MARHANA (UBJP)</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2,922</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>4.72 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>NUSAL, OMS (IND)</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1,671</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>2.70 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>PANAWALON, SAID (LAKAS)</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2,121</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>3.42 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>PATTA, SUHARTO (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>0.52 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>PISING, JERHAM (UBJP)</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>4,289</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>6.93 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>SALIH, BONNIE (IND)</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>1.46 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>SANDUNG, RUF (IND)</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1,972</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>3.18 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>SAPI-E, ALJAVIER (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2,338</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>3.77 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>TANJILANI, ABE (IND)</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1,016</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>1.64 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>TOKONG, POPOY (UBJP)</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2,389</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>3.86 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>YUSOPH, BHENZAR (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2,511</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>4.05 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B404" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C404" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D404" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>5936</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>69808</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>61856</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/BARMM/BASILAN.xlsx
+++ b/data/BARMM/BASILAN.xlsx
@@ -18752,7 +18752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24159,347 +24159,347 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>KALLAHAL, GIMA (IND)</t>
+          <t>KALANG, JINNETTE (UBJP)</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.65 %</t>
+          <t>0.70 %</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>KALLAHAL, JHABER (PDPLBN)</t>
+          <t>LATIP, ROGER (PDPLBN)</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>4,809</t>
+          <t>4,233</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>98.80 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>KALLAHAL, RAJIE (IND)</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>0.53 %</t>
+          <t>99.29 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B355" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C355" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D355" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
         </is>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="inlineStr">
-        <is>
-          <t>Over-votes</t>
-        </is>
-      </c>
-      <c r="B356" s="1" t="inlineStr">
-        <is>
-          <t>Under-votes</t>
-        </is>
-      </c>
-      <c r="C356" s="1" t="inlineStr">
-        <is>
-          <t>Valid votes</t>
-        </is>
-      </c>
-      <c r="D356" s="1" t="inlineStr">
-        <is>
-          <t>Votes obtained by all candidates</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1528</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
         <is>
           <t>5817</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>4867</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
         <is>
           <t>VICE-MAYOR</t>
         </is>
       </c>
     </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B361" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C361" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
     <row r="362">
-      <c r="A362" s="1" t="inlineStr">
-        <is>
-          <t>Candidate</t>
-        </is>
-      </c>
-      <c r="B362" s="1" t="inlineStr">
-        <is>
-          <t>Votes</t>
-        </is>
-      </c>
-      <c r="C362" s="1" t="inlineStr">
-        <is>
-          <t>Percentage</t>
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>KALANG, JINNETTE (UBJP)</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>0.70 %</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>KALANG, JINNETTE (UBJP)</t>
+          <t>LATIP, ROGER (PDPLBN)</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4,233</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.70 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>LATIP, ROGER (PDPLBN)</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>4,233</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
           <t>99.29 %</t>
         </is>
       </c>
     </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B365" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C365" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D365" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
     <row r="366">
-      <c r="A366" s="1" t="inlineStr">
-        <is>
-          <t>Over-votes</t>
-        </is>
-      </c>
-      <c r="B366" s="1" t="inlineStr">
-        <is>
-          <t>Under-votes</t>
-        </is>
-      </c>
-      <c r="C366" s="1" t="inlineStr">
-        <is>
-          <t>Valid votes</t>
-        </is>
-      </c>
-      <c r="D366" s="1" t="inlineStr">
-        <is>
-          <t>Votes obtained by all candidates</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
+      <c r="A366" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B367" t="inlineStr">
+      <c r="B366" t="inlineStr">
         <is>
           <t>1528</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr">
+      <c r="C366" t="inlineStr">
         <is>
           <t>5817</t>
         </is>
       </c>
-      <c r="D367" t="inlineStr">
+      <c r="D366" t="inlineStr">
         <is>
           <t>4263</t>
         </is>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
+    <row r="369">
+      <c r="A369" t="inlineStr">
         <is>
           <t>MEMBER, SANGGUNIANG BAYAN</t>
         </is>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B371" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C371" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
     <row r="372">
-      <c r="A372" s="1" t="inlineStr">
-        <is>
-          <t>Candidate</t>
-        </is>
-      </c>
-      <c r="B372" s="1" t="inlineStr">
-        <is>
-          <t>Votes</t>
-        </is>
-      </c>
-      <c r="C372" s="1" t="inlineStr">
-        <is>
-          <t>Percentage</t>
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ABDURAHMAN, ALIH (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>3,369</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>8.96 %</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ABDURAHMAN, ALIH (PDPLBN)</t>
+          <t>ABDURAJAK, SAUD (LP)</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>3,369</t>
+          <t>3,404</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>8.96 %</t>
+          <t>9.05 %</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ABDURAJAK, SAUD (LP)</t>
+          <t>ABUBAKAR, SAIBIN (PDPLBN)</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>3,404</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>9.05 %</t>
+          <t>0.25 %</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ABUBAKAR, SAIBIN (PDPLBN)</t>
+          <t>ABUBAKAR, SALIM (IND)</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.25 %</t>
+          <t>0.07 %</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ABUBAKAR, SALIM (IND)</t>
+          <t>AMIN, AIDA (IND)</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>314</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.07 %</t>
+          <t>0.83 %</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>AMIN, AIDA (IND)</t>
+          <t>ISALIN, SALIHIN (PDPLBN)</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>543</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.83 %</t>
+          <t>1.44 %</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ISALIN, SALIHIN (PDPLBN)</t>
+          <t>KALANG, HUSIN (LAKAS)</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>2,833</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>1.44 %</t>
+          <t>7.54 %</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>KALANG, HUSIN (LAKAS)</t>
+          <t>KALANG, JEMAR (PDPLBN)</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2,833</t>
+          <t>2,573</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>7.54 %</t>
+          <t>6.84 %</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>KALANG, JEMAR (PDPLBN)</t>
+          <t>KALANG, MUJIB (PDPLBN)</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -24516,195 +24516,178 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>KALANG, MUJIB (PDPLBN)</t>
+          <t>KALANG, USMAN (LP)</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2,573</t>
+          <t>3,831</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>6.84 %</t>
+          <t>10.19 %</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>KALANG, USMAN (LP)</t>
+          <t>KALLAHAL, ABDULSAMIE (PDPLBN)</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>3,831</t>
+          <t>4,468</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>10.19 %</t>
+          <t>11.89 %</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>KALLAHAL, ABDULSAMIE (PDPLBN)</t>
+          <t>KASIM, PING (IND)</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>4,468</t>
+          <t>3,259</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>11.89 %</t>
+          <t>8.67 %</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>KASIM, PING (IND)</t>
+          <t>KESENG, HAPIJA (LP)</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>3,259</t>
+          <t>3,624</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>8.67 %</t>
+          <t>9.64 %</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>KESENG, HAPIJA (LP)</t>
+          <t>NUHI, WALID (IND)</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>3,624</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>9.64 %</t>
+          <t>0.75 %</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>NUHI, WALID (IND)</t>
+          <t>SAALA, BASIR (IND)</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.75 %</t>
+          <t>0.22 %</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SAALA, BASIR (IND)</t>
+          <t>SALAIN, UZAIR (IND)</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>2,800</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.22 %</t>
+          <t>7.45 %</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SALAIN, UZAIR (IND)</t>
+          <t>TARANG, HAMAD (PDPLBN)</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2,800</t>
+          <t>3,487</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>7.45 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>TARANG, HAMAD (PDPLBN)</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>3,487</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
           <t>9.28 %</t>
         </is>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B390" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C390" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D390" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
     <row r="391">
-      <c r="A391" s="1" t="inlineStr">
-        <is>
-          <t>Over-votes</t>
-        </is>
-      </c>
-      <c r="B391" s="1" t="inlineStr">
-        <is>
-          <t>Under-votes</t>
-        </is>
-      </c>
-      <c r="C391" s="1" t="inlineStr">
-        <is>
-          <t>Valid votes</t>
-        </is>
-      </c>
-      <c r="D391" s="1" t="inlineStr">
-        <is>
-          <t>Votes obtained by all candidates</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
+      <c r="A391" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="B392" t="inlineStr">
+      <c r="B391" t="inlineStr">
         <is>
           <t>7900</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr">
+      <c r="C391" t="inlineStr">
         <is>
           <t>46536</t>
         </is>
       </c>
-      <c r="D392" t="inlineStr">
+      <c r="D391" t="inlineStr">
         <is>
           <t>37572</t>
         </is>
@@ -68714,7 +68697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D416"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74104,977 +74087,960 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>AHMAD, FERJAN (UBJP)</t>
+          <t>BUD, HANIE (PDPLBN)</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>17,010</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>1.06 %</t>
+          <t>76.82 %</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>AISAL, AMILHAM (PDDS)</t>
+          <t>LADJALAWIE, ISMAEL (PDDS)</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>1.20 %</t>
+          <t>0.38 %</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SAIDAL, JUL-AMRI (PFP)</t>
+          <t>SALAJIN, SAKIB (UBJP)</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>5,140</t>
+          <t>5,046</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>25.06 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>YASIN, AL-MASHOR (BUP)</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>14,900</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>72.66 %</t>
+          <t>22.78 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B355" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C355" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D355" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
         </is>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="inlineStr">
-        <is>
-          <t>Over-votes</t>
-        </is>
-      </c>
-      <c r="B356" s="1" t="inlineStr">
-        <is>
-          <t>Under-votes</t>
-        </is>
-      </c>
-      <c r="C356" s="1" t="inlineStr">
-        <is>
-          <t>Valid votes</t>
-        </is>
-      </c>
-      <c r="D356" s="1" t="inlineStr">
-        <is>
-          <t>Votes obtained by all candidates</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>2937</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1294</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
         <is>
           <t>23646</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>20505</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>22142</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
         <is>
           <t>VICE-MAYOR</t>
         </is>
       </c>
     </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B361" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C361" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
     <row r="362">
-      <c r="A362" s="1" t="inlineStr">
-        <is>
-          <t>Candidate</t>
-        </is>
-      </c>
-      <c r="B362" s="1" t="inlineStr">
-        <is>
-          <t>Votes</t>
-        </is>
-      </c>
-      <c r="C362" s="1" t="inlineStr">
-        <is>
-          <t>Percentage</t>
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>AHMAD, FERJAN (UBJP)</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>1.06 %</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>AHMAD, FERJAN (UBJP)</t>
+          <t>AISAL, AMILHAM (PDDS)</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>1.06 %</t>
+          <t>1.20 %</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>AISAL, AMILHAM (PDDS)</t>
+          <t>SAIDAL, JUL-AMRI (PFP)</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>5,140</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>1.20 %</t>
+          <t>25.06 %</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SAIDAL, JUL-AMRI (PFP)</t>
+          <t>YASIN, AL-MASHOR (BUP)</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>5,140</t>
+          <t>14,900</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>25.06 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>YASIN, AL-MASHOR (BUP)</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>14,900</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
           <t>72.66 %</t>
         </is>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B367" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C367" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D367" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
     <row r="368">
-      <c r="A368" s="1" t="inlineStr">
-        <is>
-          <t>Over-votes</t>
-        </is>
-      </c>
-      <c r="B368" s="1" t="inlineStr">
-        <is>
-          <t>Under-votes</t>
-        </is>
-      </c>
-      <c r="C368" s="1" t="inlineStr">
-        <is>
-          <t>Valid votes</t>
-        </is>
-      </c>
-      <c r="D368" s="1" t="inlineStr">
-        <is>
-          <t>Votes obtained by all candidates</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
+      <c r="A368" t="inlineStr">
         <is>
           <t>173</t>
         </is>
       </c>
-      <c r="B369" t="inlineStr">
+      <c r="B368" t="inlineStr">
         <is>
           <t>2937</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr">
+      <c r="C368" t="inlineStr">
         <is>
           <t>23646</t>
         </is>
       </c>
-      <c r="D369" t="inlineStr">
+      <c r="D368" t="inlineStr">
         <is>
           <t>20505</t>
         </is>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
+    <row r="371">
+      <c r="A371" t="inlineStr">
         <is>
           <t>MEMBER, SANGGUNIANG BAYAN</t>
         </is>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B373" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C373" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
     <row r="374">
-      <c r="A374" s="1" t="inlineStr">
-        <is>
-          <t>Candidate</t>
-        </is>
-      </c>
-      <c r="B374" s="1" t="inlineStr">
-        <is>
-          <t>Votes</t>
-        </is>
-      </c>
-      <c r="C374" s="1" t="inlineStr">
-        <is>
-          <t>Percentage</t>
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ABAH, ALKHAIZER (PDDS)</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>0.11 %</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ABAH, ALKHAIZER (PDDS)</t>
+          <t>ABDULLA, CANDU (LAKAS)</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>1,004</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.11 %</t>
+          <t>0.65 %</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ABDULLA, CANDU (LAKAS)</t>
+          <t>ABDULLA, PRIMO (UBJP)</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>1,004</t>
+          <t>2,578</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.65 %</t>
+          <t>1.67 %</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ABDULLA, PRIMO (UBJP)</t>
+          <t>ABON, MUKTAR (BUP)</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2,578</t>
+          <t>8,960</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>1.67 %</t>
+          <t>5.80 %</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ABON, MUKTAR (BUP)</t>
+          <t>AHMAD, HANAN (UBJP)</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>8,960</t>
+          <t>3,217</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>5.80 %</t>
+          <t>2.08 %</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>AHMAD, HANAN (UBJP)</t>
+          <t>AISAL, NUR-SHAIK (PDDS)</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>3,217</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>2.08 %</t>
+          <t>0.09 %</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>AISAL, NUR-SHAIK (PDDS)</t>
+          <t>AMIL, BUNDIN (PDDS)</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>1,596</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.09 %</t>
+          <t>1.03 %</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>AMIL, BUNDIN (PDDS)</t>
+          <t>AMSID, NORMA (PDDS)</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>1,596</t>
+          <t>271</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>1.03 %</t>
+          <t>0.17 %</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>AMSID, NORMA (PDDS)</t>
+          <t>ARON, MHOAMHAR  (PDPLBN)</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>6,788</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.17 %</t>
+          <t>4.39 %</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ARON, MHOAMHAR  (PDPLBN)</t>
+          <t>ASAKIL, TAHA (PFP)</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>6,788</t>
+          <t>2,115</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>4.39 %</t>
+          <t>1.37 %</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ASAKIL, TAHA (PFP)</t>
+          <t>ASAMUDDIN, JULMIN (IND)</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2,115</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>1.37 %</t>
+          <t>0.12 %</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ASAMUDDIN, JULMIN (IND)</t>
+          <t>BARANG, AL  (BUP)</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>11,277</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.12 %</t>
+          <t>7.30 %</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BARANG, AL  (BUP)</t>
+          <t>BASA, ZIA ULHAQ (BUP)</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>11,277</t>
+          <t>11,390</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>7.30 %</t>
+          <t>7.38 %</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>BASA, ZIA ULHAQ (BUP)</t>
+          <t>FRANCISCO, RHENDI (PDPLBN)</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>11,390</t>
+          <t>815</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>7.38 %</t>
+          <t>0.52 %</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>FRANCISCO, RHENDI (PDPLBN)</t>
+          <t>HAJUL, DURUJA (IND)</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>9,619</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.52 %</t>
+          <t>6.23 %</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>HAJUL, DURUJA (IND)</t>
+          <t>HAYRE, ROSE (IND)</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>9,619</t>
+          <t>1,502</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>6.23 %</t>
+          <t>0.97 %</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>HAYRE, ROSE (IND)</t>
+          <t>IMBAH, MIN (IND)</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>1,502</t>
+          <t>5,436</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.97 %</t>
+          <t>3.52 %</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>IMBAH, MIN (IND)</t>
+          <t>INDANAN, ADZMER (IND)</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>5,436</t>
+          <t>9,768</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>3.52 %</t>
+          <t>6.33 %</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>INDANAN, ADZMER (IND)</t>
+          <t>INSANG, SALAM (IND)</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>9,768</t>
+          <t>1,156</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>6.33 %</t>
+          <t>0.74 %</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>INSANG, SALAM (IND)</t>
+          <t>JABARANI, RIYANA (PDDS)</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>1,156</t>
+          <t>331</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.74 %</t>
+          <t>0.21 %</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>JABARANI, RIYANA (PDDS)</t>
+          <t>JACKARIA, KIRAM (LAKAS)</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.21 %</t>
+          <t>0.15 %</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>JACKARIA, KIRAM (LAKAS)</t>
+          <t>JAWATAN, JUMDA (PDDS)</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.15 %</t>
+          <t>0.06 %</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>JAWATAN, JUMDA (PDDS)</t>
+          <t>KAMLON, RASHEDIN  (PDPLBN)</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>5,753</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.06 %</t>
+          <t>3.72 %</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>KAMLON, RASHEDIN  (PDPLBN)</t>
+          <t>LUMAYON, ANNIN (PDDS)</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>5,753</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>3.72 %</t>
+          <t>0.14 %</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>LUMAYON, ANNIN (PDDS)</t>
+          <t>MIGUEL, HUSIN (IND)</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>13,055</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.14 %</t>
+          <t>8.46 %</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>MIGUEL, HUSIN (IND)</t>
+          <t>MUKSAN, NURHAMIN  (PDPLBN)</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>13,055</t>
+          <t>8,827</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>8.46 %</t>
+          <t>5.72 %</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>MUKSAN, NURHAMIN  (PDPLBN)</t>
+          <t>RENIN, EDWIN (UBJP)</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>8,827</t>
+          <t>425</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>5.72 %</t>
+          <t>0.27 %</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>RENIN, EDWIN (UBJP)</t>
+          <t>SABTULA, RUDY (LAKAS)</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>727</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.27 %</t>
+          <t>0.47 %</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SABTULA, RUDY (LAKAS)</t>
+          <t>SALAHUDDIN, ARIEL (IND)</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>8,037</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.47 %</t>
+          <t>5.20 %</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SALAHUDDIN, ARIEL (IND)</t>
+          <t>SALUWAY, ANNUAL (PDPLBN)</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>8,037</t>
+          <t>11,603</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>5.20 %</t>
+          <t>7.51 %</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SALUWAY, ANNUAL (PDPLBN)</t>
+          <t>SAMPANG, ALMA (UBJP)</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>11,603</t>
+          <t>928</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>7.51 %</t>
+          <t>0.60 %</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SAMPANG, ALMA (UBJP)</t>
+          <t>SONNY, ARSATTA (UBJP)</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>1,453</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.60 %</t>
+          <t>0.94 %</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SONNY, ARSATTA (UBJP)</t>
+          <t>SONNY, FAISAL (BUP)</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>1,453</t>
+          <t>9,804</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.94 %</t>
+          <t>6.35 %</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SONNY, FAISAL (BUP)</t>
+          <t>SUAIB, MARWAN (IND)</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>9,804</t>
+          <t>1,547</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>6.35 %</t>
+          <t>1.00 %</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SUAIB, MARWAN (IND)</t>
+          <t>TABIOS, FERNANDO (IND)</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>1,547</t>
+          <t>530</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>1.00 %</t>
+          <t>0.34 %</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>TABIOS, FERNANDO (IND)</t>
+          <t>TAHIL, NUR-AINA (PDDS)</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>168</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.34 %</t>
+          <t>0.10 %</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>TAHIL, NUR-AINA (PDDS)</t>
+          <t>TALIB, ALYAZER (IND)</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>5,610</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.10 %</t>
+          <t>3.63 %</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>TALIB, ALYAZER (IND)</t>
+          <t>WADJA, TIMBASAL (PDPLBN)</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>5,610</t>
+          <t>5,411</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>3.63 %</t>
+          <t>3.50 %</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>WADJA, TIMBASAL (PDPLBN)</t>
+          <t>WAHI, MAHMUD (IND)</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>5,411</t>
+          <t>1,490</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>3.50 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>WAHI, MAHMUD (IND)</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>1,490</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr">
-        <is>
           <t>0.96 %</t>
         </is>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B414" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C414" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D414" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
     <row r="415">
-      <c r="A415" s="1" t="inlineStr">
-        <is>
-          <t>Over-votes</t>
-        </is>
-      </c>
-      <c r="B415" s="1" t="inlineStr">
-        <is>
-          <t>Under-votes</t>
-        </is>
-      </c>
-      <c r="C415" s="1" t="inlineStr">
-        <is>
-          <t>Valid votes</t>
-        </is>
-      </c>
-      <c r="D415" s="1" t="inlineStr">
-        <is>
-          <t>Votes obtained by all candidates</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
+      <c r="A415" t="inlineStr">
         <is>
           <t>1192</t>
         </is>
       </c>
-      <c r="B416" t="inlineStr">
+      <c r="B415" t="inlineStr">
         <is>
           <t>25087</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr">
+      <c r="C415" t="inlineStr">
         <is>
           <t>189168</t>
         </is>
       </c>
-      <c r="D416" t="inlineStr">
+      <c r="D415" t="inlineStr">
         <is>
           <t>154297</t>
         </is>

--- a/data/BARMM/BASILAN.xlsx
+++ b/data/BARMM/BASILAN.xlsx
@@ -18752,7 +18752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24159,347 +24159,347 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>KALANG, JINNETTE (UBJP)</t>
+          <t>KALLAHAL, GIMA (IND)</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.70 %</t>
+          <t>0.65 %</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>LATIP, ROGER (PDPLBN)</t>
+          <t>KALLAHAL, JHABER (PDPLBN)</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>4,233</t>
+          <t>4,809</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>99.29 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="inlineStr">
+          <t>98.80 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>KALLAHAL, RAJIE (IND)</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>0.53 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
         <is>
           <t>Over-votes</t>
         </is>
       </c>
-      <c r="B355" s="1" t="inlineStr">
+      <c r="B356" s="1" t="inlineStr">
         <is>
           <t>Under-votes</t>
         </is>
       </c>
-      <c r="C355" s="1" t="inlineStr">
+      <c r="C356" s="1" t="inlineStr">
         <is>
           <t>Valid votes</t>
         </is>
       </c>
-      <c r="D355" s="1" t="inlineStr">
+      <c r="D356" s="1" t="inlineStr">
         <is>
           <t>Votes obtained by all candidates</t>
         </is>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>1528</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
         <is>
           <t>5817</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>4263</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>4867</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
         <is>
           <t>VICE-MAYOR</t>
         </is>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="1" t="inlineStr">
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
         <is>
           <t>Candidate</t>
         </is>
       </c>
-      <c r="B361" s="1" t="inlineStr">
+      <c r="B362" s="1" t="inlineStr">
         <is>
           <t>Votes</t>
         </is>
       </c>
-      <c r="C361" s="1" t="inlineStr">
+      <c r="C362" s="1" t="inlineStr">
         <is>
           <t>Percentage</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>KALANG, JINNETTE (UBJP)</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>0.70 %</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
+          <t>KALANG, JINNETTE (UBJP)</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>0.70 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
           <t>LATIP, ROGER (PDPLBN)</t>
         </is>
       </c>
-      <c r="B363" t="inlineStr">
+      <c r="B364" t="inlineStr">
         <is>
           <t>4,233</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr">
+      <c r="C364" t="inlineStr">
         <is>
           <t>99.29 %</t>
         </is>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="1" t="inlineStr">
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
         <is>
           <t>Over-votes</t>
         </is>
       </c>
-      <c r="B365" s="1" t="inlineStr">
+      <c r="B366" s="1" t="inlineStr">
         <is>
           <t>Under-votes</t>
         </is>
       </c>
-      <c r="C365" s="1" t="inlineStr">
+      <c r="C366" s="1" t="inlineStr">
         <is>
           <t>Valid votes</t>
         </is>
       </c>
-      <c r="D365" s="1" t="inlineStr">
+      <c r="D366" s="1" t="inlineStr">
         <is>
           <t>Votes obtained by all candidates</t>
         </is>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
+    <row r="367">
+      <c r="A367" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B366" t="inlineStr">
+      <c r="B367" t="inlineStr">
         <is>
           <t>1528</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr">
+      <c r="C367" t="inlineStr">
         <is>
           <t>5817</t>
         </is>
       </c>
-      <c r="D366" t="inlineStr">
+      <c r="D367" t="inlineStr">
         <is>
           <t>4263</t>
         </is>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
+    <row r="370">
+      <c r="A370" t="inlineStr">
         <is>
           <t>MEMBER, SANGGUNIANG BAYAN</t>
         </is>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="1" t="inlineStr">
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
         <is>
           <t>Candidate</t>
         </is>
       </c>
-      <c r="B371" s="1" t="inlineStr">
+      <c r="B372" s="1" t="inlineStr">
         <is>
           <t>Votes</t>
         </is>
       </c>
-      <c r="C371" s="1" t="inlineStr">
+      <c r="C372" s="1" t="inlineStr">
         <is>
           <t>Percentage</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>ABDURAHMAN, ALIH (PDPLBN)</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>3,369</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>8.96 %</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ABDURAJAK, SAUD (LP)</t>
+          <t>ABDURAHMAN, ALIH (PDPLBN)</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>3,404</t>
+          <t>3,369</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>9.05 %</t>
+          <t>8.96 %</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ABUBAKAR, SAIBIN (PDPLBN)</t>
+          <t>ABDURAJAK, SAUD (LP)</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>3,404</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.25 %</t>
+          <t>9.05 %</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ABUBAKAR, SALIM (IND)</t>
+          <t>ABUBAKAR, SAIBIN (PDPLBN)</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.07 %</t>
+          <t>0.25 %</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>AMIN, AIDA (IND)</t>
+          <t>ABUBAKAR, SALIM (IND)</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.83 %</t>
+          <t>0.07 %</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ISALIN, SALIHIN (PDPLBN)</t>
+          <t>AMIN, AIDA (IND)</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>314</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>1.44 %</t>
+          <t>0.83 %</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>KALANG, HUSIN (LAKAS)</t>
+          <t>ISALIN, SALIHIN (PDPLBN)</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2,833</t>
+          <t>543</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>7.54 %</t>
+          <t>1.44 %</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>KALANG, JEMAR (PDPLBN)</t>
+          <t>KALANG, HUSIN (LAKAS)</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2,573</t>
+          <t>2,833</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>6.84 %</t>
+          <t>7.54 %</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>KALANG, MUJIB (PDPLBN)</t>
+          <t>KALANG, JEMAR (PDPLBN)</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -24516,178 +24516,195 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>KALANG, USMAN (LP)</t>
+          <t>KALANG, MUJIB (PDPLBN)</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>3,831</t>
+          <t>2,573</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>10.19 %</t>
+          <t>6.84 %</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>KALLAHAL, ABDULSAMIE (PDPLBN)</t>
+          <t>KALANG, USMAN (LP)</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>4,468</t>
+          <t>3,831</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>11.89 %</t>
+          <t>10.19 %</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>KASIM, PING (IND)</t>
+          <t>KALLAHAL, ABDULSAMIE (PDPLBN)</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>3,259</t>
+          <t>4,468</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>8.67 %</t>
+          <t>11.89 %</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>KESENG, HAPIJA (LP)</t>
+          <t>KASIM, PING (IND)</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>3,624</t>
+          <t>3,259</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>9.64 %</t>
+          <t>8.67 %</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>NUHI, WALID (IND)</t>
+          <t>KESENG, HAPIJA (LP)</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>3,624</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.75 %</t>
+          <t>9.64 %</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SAALA, BASIR (IND)</t>
+          <t>NUHI, WALID (IND)</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.22 %</t>
+          <t>0.75 %</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SALAIN, UZAIR (IND)</t>
+          <t>SAALA, BASIR (IND)</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2,800</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>7.45 %</t>
+          <t>0.22 %</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
+          <t>SALAIN, UZAIR (IND)</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2,800</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>7.45 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
           <t>TARANG, HAMAD (PDPLBN)</t>
         </is>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>3,487</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>9.28 %</t>
         </is>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="1" t="inlineStr">
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
         <is>
           <t>Over-votes</t>
         </is>
       </c>
-      <c r="B390" s="1" t="inlineStr">
+      <c r="B391" s="1" t="inlineStr">
         <is>
           <t>Under-votes</t>
         </is>
       </c>
-      <c r="C390" s="1" t="inlineStr">
+      <c r="C391" s="1" t="inlineStr">
         <is>
           <t>Valid votes</t>
         </is>
       </c>
-      <c r="D390" s="1" t="inlineStr">
+      <c r="D391" s="1" t="inlineStr">
         <is>
           <t>Votes obtained by all candidates</t>
         </is>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
+    <row r="392">
+      <c r="A392" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="B391" t="inlineStr">
+      <c r="B392" t="inlineStr">
         <is>
           <t>7900</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
+      <c r="C392" t="inlineStr">
         <is>
           <t>46536</t>
         </is>
       </c>
-      <c r="D391" t="inlineStr">
+      <c r="D392" t="inlineStr">
         <is>
           <t>37572</t>
         </is>
@@ -43155,7 +43172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D412"/>
+  <dimension ref="A1:D410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48562,892 +48579,858 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>AHIRI, NORA (IND)</t>
+          <t>FURIGAY, GEM (UNA)</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>33,576</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.63 %</t>
+          <t>96.66 %</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ALLIK, JUN (LAKAS)</t>
+          <t>INJANG, MICHAEL (IND)</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>1,158</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.18 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>FURIGAY, ORIC (PDPLBN)</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>35,392</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>92.42 %</t>
+          <t>3.33 %</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>SAKKALAHUL, AL-RASHEED (PFP)</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>2,583</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>6.74 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="inlineStr">
+      <c r="A355" s="1" t="inlineStr">
         <is>
           <t>Over-votes</t>
         </is>
       </c>
-      <c r="B357" s="1" t="inlineStr">
+      <c r="B355" s="1" t="inlineStr">
         <is>
           <t>Under-votes</t>
         </is>
       </c>
-      <c r="C357" s="1" t="inlineStr">
+      <c r="C355" s="1" t="inlineStr">
         <is>
           <t>Valid votes</t>
         </is>
       </c>
-      <c r="D357" s="1" t="inlineStr">
+      <c r="D355" s="1" t="inlineStr">
         <is>
           <t>Votes obtained by all candidates</t>
         </is>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>194</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>3129</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>6862</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
         <is>
           <t>41679</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>38291</t>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>34734</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>VICE-MAYOR</t>
         </is>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>VICE-MAYOR</t>
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>Candidate</t>
+        </is>
+      </c>
+      <c r="B361" s="1" t="inlineStr">
+        <is>
+          <t>Votes</t>
+        </is>
+      </c>
+      <c r="C361" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>FURIGAY, GEM (UNA)</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>33,576</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>96.66 %</t>
         </is>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="inlineStr">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>INJANG, MICHAEL (IND)</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1,158</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>3.33 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>Over-votes</t>
+        </is>
+      </c>
+      <c r="B365" s="1" t="inlineStr">
+        <is>
+          <t>Under-votes</t>
+        </is>
+      </c>
+      <c r="C365" s="1" t="inlineStr">
+        <is>
+          <t>Valid votes</t>
+        </is>
+      </c>
+      <c r="D365" s="1" t="inlineStr">
+        <is>
+          <t>Votes obtained by all candidates</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>6862</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>41679</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>34734</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>MEMBER, SANGGUNIANG PANLUNGSOD</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
         <is>
           <t>Candidate</t>
         </is>
       </c>
-      <c r="B363" s="1" t="inlineStr">
+      <c r="B371" s="1" t="inlineStr">
         <is>
           <t>Votes</t>
         </is>
       </c>
-      <c r="C363" s="1" t="inlineStr">
+      <c r="C371" s="1" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>FURIGAY, GEM (UNA)</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>33,576</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>96.66 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>INJANG, MICHAEL (IND)</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>1,158</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>3.33 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="inlineStr">
-        <is>
-          <t>Over-votes</t>
-        </is>
-      </c>
-      <c r="B367" s="1" t="inlineStr">
-        <is>
-          <t>Under-votes</t>
-        </is>
-      </c>
-      <c r="C367" s="1" t="inlineStr">
-        <is>
-          <t>Valid votes</t>
-        </is>
-      </c>
-      <c r="D367" s="1" t="inlineStr">
-        <is>
-          <t>Votes obtained by all candidates</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>6862</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>41679</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>34734</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>MEMBER, SANGGUNIANG PANLUNGSOD</t>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ABBAS, RHADAMEER (PDPLBN)</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>10,773</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>3.36 %</t>
         </is>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="inlineStr">
-        <is>
-          <t>Candidate</t>
-        </is>
-      </c>
-      <c r="B373" s="1" t="inlineStr">
-        <is>
-          <t>Votes</t>
-        </is>
-      </c>
-      <c r="C373" s="1" t="inlineStr">
-        <is>
-          <t>Percentage</t>
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ACAR, PILAR (IND)</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>0.16 %</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ABBAS, RHADAMEER (PDPLBN)</t>
+          <t>AKBAR, IN (PDPLBN)</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>10,773</t>
+          <t>17,879</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>3.36 %</t>
+          <t>5.58 %</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ACAR, PILAR (IND)</t>
+          <t>AKILIN, BOY (IND)</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>1,126</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.16 %</t>
+          <t>0.35 %</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>AKBAR, IN (PDPLBN)</t>
+          <t>ALKIE, ASBIE (IND)</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>17,879</t>
+          <t>12,360</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>5.58 %</t>
+          <t>3.86 %</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>AKILIN, BOY (IND)</t>
+          <t>ANTONIO, REGINE (IND)</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>1,126</t>
+          <t>19,307</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.35 %</t>
+          <t>6.03 %</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ALKIE, ASBIE (IND)</t>
+          <t>ASALUL, ANDY (UBJP)</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>12,360</t>
+          <t>1,035</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>3.86 %</t>
+          <t>0.32 %</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ANTONIO, REGINE (IND)</t>
+          <t>ASNAWIE, SUADA (IND)</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>19,307</t>
+          <t>12,687</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>6.03 %</t>
+          <t>3.96 %</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ASALUL, ANDY (UBJP)</t>
+          <t>ATAIN, HADJI SAMAD (PDPLBN)</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>1,035</t>
+          <t>12,133</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.32 %</t>
+          <t>3.79 %</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ASNAWIE, SUADA (IND)</t>
+          <t>AWALUN, TAPS (IND)</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>12,687</t>
+          <t>428</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>3.96 %</t>
+          <t>0.13 %</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ATAIN, HADJI SAMAD (PDPLBN)</t>
+          <t>CALIMAG, RYAN (PFP)</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>12,133</t>
+          <t>1,625</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>3.79 %</t>
+          <t>0.50 %</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>AWALUN, TAPS (IND)</t>
+          <t>CAMAL, HAMID (PFP)</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>1,424</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.13 %</t>
+          <t>0.44 %</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>CALIMAG, RYAN (PFP)</t>
+          <t>CERVANTES, SAMBOY (PDPLBN)</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>1,625</t>
+          <t>22,965</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.50 %</t>
+          <t>7.17 %</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>CAMAL, HAMID (PFP)</t>
+          <t>CUEVAS, JAMILA (IND)</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>1,424</t>
+          <t>634</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.44 %</t>
+          <t>0.19 %</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>CERVANTES, SAMBOY (PDPLBN)</t>
+          <t>DALAWIS, JING (PDPLBN)</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>22,965</t>
+          <t>14,590</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>7.17 %</t>
+          <t>4.55 %</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>CUEVAS, JAMILA (IND)</t>
+          <t>DALIPE, NONOY (IND)</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>15,114</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.19 %</t>
+          <t>4.72 %</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>DALAWIS, JING (PDPLBN)</t>
+          <t>EISMA, ARLEIGH (PDPLBN)</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>14,590</t>
+          <t>25,449</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>4.55 %</t>
+          <t>7.95 %</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>DALIPE, NONOY (IND)</t>
+          <t>FLORES, JESSICA (PFP)</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>15,114</t>
+          <t>11,668</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>4.72 %</t>
+          <t>3.64 %</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>EISMA, ARLEIGH (PDPLBN)</t>
+          <t>FLORES, KENNY (PDPLBN)</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>25,449</t>
+          <t>23,523</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>7.95 %</t>
+          <t>7.35 %</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>FLORES, JESSICA (PFP)</t>
+          <t>FRANCISCO, LUCIANO (IND)</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>11,668</t>
+          <t>520</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>3.64 %</t>
+          <t>0.16 %</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>FLORES, KENNY (PDPLBN)</t>
+          <t>FURIGAY, WILFREDO JR. (PFP)</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>23,523</t>
+          <t>6,088</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>7.35 %</t>
+          <t>1.90 %</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>FRANCISCO, LUCIANO (IND)</t>
+          <t>GUNONG, ABUBAKAR (IND)</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>14,651</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.16 %</t>
+          <t>4.57 %</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>FURIGAY, WILFREDO JR. (PFP)</t>
+          <t>HASSAN, IBS (PDPLBN)</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>6,088</t>
+          <t>17,222</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>1.90 %</t>
+          <t>5.38 %</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>GUNONG, ABUBAKAR (IND)</t>
+          <t>JALANI, PRASAD (IND)</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>14,651</t>
+          <t>437</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>4.57 %</t>
+          <t>0.13 %</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>HASSAN, IBS (PDPLBN)</t>
+          <t>MANGKABUNG, ROMY (PFP)</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>17,222</t>
+          <t>9,802</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>5.38 %</t>
+          <t>3.06 %</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>JALANI, PRASAD (IND)</t>
+          <t>MANIGOS, CECILIA (IND)</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>1,053</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.13 %</t>
+          <t>0.32 %</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>MANGKABUNG, ROMY (PFP)</t>
+          <t>MATEO, ROY (PFP)</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>9,802</t>
+          <t>9,033</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>3.06 %</t>
+          <t>2.82 %</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>MANIGOS, CECILIA (IND)</t>
+          <t>MOCOY, JULIETA (IND)</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>1,053</t>
+          <t>475</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.32 %</t>
+          <t>0.14 %</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>MATEO, ROY (PFP)</t>
+          <t>NACORDA, BENNIE (IND)</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>9,033</t>
+          <t>2,567</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>2.82 %</t>
+          <t>0.80 %</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>MOCOY, JULIETA (IND)</t>
+          <t>NISAL, FAHAD (LP)</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>10,992</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.14 %</t>
+          <t>3.43 %</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>NACORDA, BENNIE (IND)</t>
+          <t>PANGLIAS, ABZHAR (BUP)</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2,567</t>
+          <t>12,095</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.80 %</t>
+          <t>3.77 %</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>NISAL, FAHAD (LP)</t>
+          <t>PURI, BOY (PDPLBN)</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>10,992</t>
+          <t>12,704</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>3.43 %</t>
+          <t>3.97 %</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>PANGLIAS, ABZHAR (BUP)</t>
+          <t>RAMOS, TITO (PFP)</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>12,095</t>
+          <t>3,408</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>3.77 %</t>
+          <t>1.06 %</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>PURI, BOY (PDPLBN)</t>
+          <t>SAN JUAN, ITOY (PDPLBN)</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>12,704</t>
+          <t>11,657</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>3.97 %</t>
+          <t>3.64 %</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>RAMOS, TITO (PFP)</t>
+          <t>ULLOH, MOHAMMAD KUSIN (PFP)</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>3,408</t>
+          <t>1,382</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>1.06 %</t>
+          <t>0.43 %</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SAN JUAN, ITOY (PDPLBN)</t>
+          <t>YUNUS, ALBIYA (IND)</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>11,657</t>
+          <t>659</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>3.64 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>ULLOH, MOHAMMAD KUSIN (PFP)</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>1,382</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>0.43 %</t>
+          <t>0.20 %</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>YUNUS, ALBIYA (IND)</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>659</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>0.20 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="inlineStr">
+      <c r="A409" s="1" t="inlineStr">
         <is>
           <t>Over-votes</t>
         </is>
       </c>
-      <c r="B411" s="1" t="inlineStr">
+      <c r="B409" s="1" t="inlineStr">
         <is>
           <t>Under-votes</t>
         </is>
       </c>
-      <c r="C411" s="1" t="inlineStr">
+      <c r="C409" s="1" t="inlineStr">
         <is>
           <t>Valid votes</t>
         </is>
       </c>
-      <c r="D411" s="1" t="inlineStr">
+      <c r="D409" s="1" t="inlineStr">
         <is>
           <t>Votes obtained by all candidates</t>
         </is>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
+    <row r="410">
+      <c r="A410" t="inlineStr">
         <is>
           <t>1637</t>
         </is>
       </c>
-      <c r="B412" t="inlineStr">
+      <c r="B410" t="inlineStr">
         <is>
           <t>79784</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr">
+      <c r="C410" t="inlineStr">
         <is>
           <t>416790</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr">
+      <c r="D410" t="inlineStr">
         <is>
           <t>319986</t>
         </is>
